--- a/documents/Design/DesignMetrics.xlsx
+++ b/documents/Design/DesignMetrics.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiny\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiny\Documents\fall2016-group2\documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Draft1" sheetId="1" r:id="rId1"/>
-    <sheet name="Draft2" sheetId="2" r:id="rId2"/>
+    <sheet name="StateTransition" sheetId="1" r:id="rId1"/>
+    <sheet name="UseCase" sheetId="2" r:id="rId2"/>
+    <sheet name="System Design" sheetId="3" r:id="rId3"/>
+    <sheet name="Wireframe" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>Sufficiency</t>
   </si>
@@ -36,9 +38,6 @@
     <t>Space Effeciency</t>
   </si>
   <si>
-    <t>Which requirements were met?</t>
-  </si>
-  <si>
     <t>Score between 0 (not met at all) and 1 (completely met)</t>
   </si>
   <si>
@@ -58,13 +57,34 @@
   </si>
   <si>
     <t>Requirement Categories</t>
+  </si>
+  <si>
+    <t>Web pages &amp; basic validation</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Nyalia</t>
+  </si>
+  <si>
+    <t>Angus</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Rihhdi</t>
+  </si>
+  <si>
+    <t>Yash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +102,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,11 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,80 +458,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="44.25" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="4">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <f>AVERAGE(B5:B8)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C12" s="4">
+        <v>42682</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B14:B18)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <f>AVERAGE(B3:B6)</f>
-        <v>0.5</v>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.85000000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -511,81 +702,658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="4">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <f>AVERAGE(B5:B8)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C11" s="4">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B14:B18)</f>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="4">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <f>AVERAGE(B5:B8)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C11" s="4">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B14:B18)</f>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="4">
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <f>AVERAGE(B3:B6)</f>
-        <v>0.75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <f>AVERAGE(B5:B9)</f>
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <f>AVERAGE(G5:G9)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
